--- a/WIP/Users/LucPT/FAP_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_Common Module (Search)_v1.0_EN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -675,11 +675,6 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>Check display:
-- Window 7
--Browser: Firefox, Chrome, IE</t>
-  </si>
-  <si>
     <t>1.1.1.2</t>
   </si>
   <si>
@@ -982,106 +977,110 @@
     <t>Chỉ tiêu thể hiện là đang phù hợp ở mức độ như thế nào trong quy cách・quy tắc・tiêu chuẩn (của protocol v.v…)liên quan đến tính linh động</t>
   </si>
   <si>
-    <t>- Web title: Homepage
+    <t>Search Screen</t>
+  </si>
+  <si>
+    <t>Search screen</t>
+  </si>
+  <si>
+    <t>Searcharea</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Click on "Search" button</t>
+  </si>
+  <si>
+    <t>Display result if exist in database</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.2.3.1</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>1.2.4.1</t>
+  </si>
+  <si>
+    <t>- Display full item (Seach area, Search button)
+- Text's color is black</t>
+  </si>
+  <si>
+    <t>Input information</t>
+  </si>
+  <si>
+    <t>Search places</t>
+  </si>
+  <si>
+    <t>Search people</t>
+  </si>
+  <si>
+    <t>Search Room</t>
+  </si>
+  <si>
+    <t>SearchPeople</t>
+  </si>
+  <si>
+    <t>Display “Search People” screen that contains search people result
+- Keyword is highlighted</t>
+  </si>
+  <si>
+    <t>Searchplaces</t>
+  </si>
+  <si>
+    <t>Click on "PLACES" button</t>
+  </si>
+  <si>
+    <t>Click on "PEOPLE" button</t>
+  </si>
+  <si>
+    <t>Display “Search Places” screen that contains search places result
+- Keyword is highlighted</t>
+  </si>
+  <si>
+    <t>Searchroom</t>
+  </si>
+  <si>
+    <t>Click on "ROOM" button</t>
+  </si>
+  <si>
+    <t>Display “Search Room” screen that contains search room result
+- Keyword is highlighted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLY AWAY PLUS </t>
+  </si>
+  <si>
+    <t>FAP</t>
+  </si>
+  <si>
+    <t>LucPTSE02923</t>
+  </si>
+  <si>
+    <t>FAP_TestViewpoint_Common Module (Search)_v1.0_EN</t>
+  </si>
+  <si>
+    <t>FAP_Software requirement specification_v1.0</t>
+  </si>
+  <si>
+    <t>Check display:
+-Browser: Firefox, Chrome</t>
+  </si>
+  <si>
+    <t>- Web title: Search result page
 - Display normally, there is not push, breaking font
 - Display text, textbox, button, color, background and arrangement</t>
   </si>
   <si>
-    <t>Search Screen</t>
-  </si>
-  <si>
-    <t>Search screen</t>
-  </si>
-  <si>
-    <t>Searcharea</t>
-  </si>
-  <si>
-    <t>Input information  in "Searcharea" textbox</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>Click on "Search" button</t>
-  </si>
-  <si>
-    <t>Display result if exist in database</t>
-  </si>
-  <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>1.2.3.1</t>
-  </si>
-  <si>
-    <t>1.2.4</t>
-  </si>
-  <si>
-    <t>1.2.4.1</t>
-  </si>
-  <si>
-    <t>Can type max 255  characters</t>
-  </si>
-  <si>
-    <t>- Display full item (Seach area, Search button)
-- Text's color is black</t>
-  </si>
-  <si>
-    <t>Input information</t>
-  </si>
-  <si>
-    <t>Search places</t>
-  </si>
-  <si>
-    <t>Search people</t>
-  </si>
-  <si>
-    <t>Search Room</t>
-  </si>
-  <si>
-    <t>SearchPeople</t>
-  </si>
-  <si>
-    <t>Display “Search People” screen that contains search people result
-- Keyword is highlighted</t>
-  </si>
-  <si>
-    <t>Searchplaces</t>
-  </si>
-  <si>
-    <t>Click on "PLACES" button</t>
-  </si>
-  <si>
-    <t>Click on "PEOPLE" button</t>
-  </si>
-  <si>
-    <t>Display “Search Places” screen that contains search places result
-- Keyword is highlighted</t>
-  </si>
-  <si>
-    <t>Searchroom</t>
-  </si>
-  <si>
-    <t>Click on "ROOM" button</t>
-  </si>
-  <si>
-    <t>Display “Search Room” screen that contains search room result
-- Keyword is highlighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLY AWAY PLUS </t>
-  </si>
-  <si>
-    <t>FAP</t>
-  </si>
-  <si>
-    <t>LucPTSE02923</t>
-  </si>
-  <si>
-    <t>FAP_TestViewpoint_Common Module (Search)_v1.0_EN</t>
-  </si>
-  <si>
-    <t>FAP_Software requirement specification_v1.0</t>
+    <t>Input information  in "Search area" textbox</t>
+  </si>
+  <si>
+    <t>Texts user input are displayed</t>
   </si>
 </sst>
 </file>
@@ -3078,6 +3077,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3098,24 +3115,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6245,9 +6244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6265,14 +6262,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6287,44 +6284,44 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="104" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="C4" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="104" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="C5" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="C6" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6333,11 +6330,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6360,10 +6357,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6381,10 +6378,10 @@
       <c r="B10" s="22">
         <v>41980</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6393,13 +6390,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6407,8 +6404,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6416,8 +6413,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6425,8 +6422,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6434,8 +6431,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6443,8 +6440,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6452,6 +6449,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6459,12 +6462,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6480,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6602,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6671,23 +6668,23 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="48.75" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
       <c r="G10" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="49" t="s">
         <v>35</v>
@@ -6699,21 +6696,21 @@
         <v>37</v>
       </c>
       <c r="K10" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A11" s="45"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
@@ -6727,12 +6724,12 @@
       <c r="A12" s="47"/>
       <c r="B12" s="48"/>
       <c r="C12" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6745,13 +6742,13 @@
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6763,23 +6760,23 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="32.25" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="60"/>
       <c r="E14" s="64"/>
       <c r="F14" s="63"/>
       <c r="G14" s="63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6791,22 +6788,22 @@
         <v>37</v>
       </c>
       <c r="K14" s="59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L14" s="56" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
       <c r="F15" s="51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -6819,13 +6816,13 @@
       <c r="A16" s="47"/>
       <c r="B16" s="48"/>
       <c r="C16" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="56"/>
       <c r="F16" s="62"/>
       <c r="G16" s="62" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6837,22 +6834,22 @@
         <v>37</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="63"/>
       <c r="F17" s="51" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
@@ -6865,13 +6862,13 @@
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D18" s="49"/>
       <c r="E18" s="63"/>
       <c r="F18" s="56"/>
       <c r="G18" s="62" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -6883,22 +6880,22 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="63"/>
       <c r="F19" s="51" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
@@ -6911,13 +6908,13 @@
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="63"/>
       <c r="F20" s="56"/>
       <c r="G20" s="62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -6929,10 +6926,10 @@
         <v>37</v>
       </c>
       <c r="K20" s="56" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L20" s="62" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1">
@@ -7854,14 +7851,14 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -7890,25 +7887,25 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="81" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="H2" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="I2" s="81" t="s">
         <v>53</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -7920,70 +7917,70 @@
         <v>37</v>
       </c>
       <c r="E3" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="G3" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="H3" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="I3" s="84" t="s">
         <v>58</v>
-      </c>
-      <c r="I3" s="84" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="83"/>
       <c r="D4" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="F4" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="G4" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="H4" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="I4" s="85" t="s">
         <v>64</v>
-      </c>
-      <c r="I4" s="85" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="83"/>
       <c r="F5" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="83"/>
       <c r="H5" s="85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="83"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="83"/>
       <c r="D6" s="84" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="83"/>
       <c r="F6" s="83"/>
@@ -7993,7 +7990,7 @@
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="83"/>
       <c r="D7" s="83"/>
@@ -8005,7 +8002,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
@@ -8152,7 +8149,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -8160,13 +8157,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="87" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -8175,7 +8172,7 @@
       </c>
       <c r="C5" s="119"/>
       <c r="D5" s="88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="88"/>
     </row>
@@ -8185,358 +8182,358 @@
         <v>37</v>
       </c>
       <c r="D6" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="90" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="24" customHeight="1">
       <c r="B7" s="116"/>
       <c r="C7" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="E7" s="91" t="s">
         <v>76</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="21.75" customHeight="1">
       <c r="B8" s="116"/>
       <c r="C8" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="E8" s="91" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="91" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="116"/>
       <c r="C9" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="E9" s="93" t="s">
         <v>82</v>
-      </c>
-      <c r="E9" s="93" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23.25" customHeight="1">
       <c r="B10" s="117"/>
       <c r="C10" s="89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="91" t="s">
         <v>84</v>
-      </c>
-      <c r="E10" s="91" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.25" customHeight="1">
       <c r="B11" s="118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="119"/>
       <c r="D11" s="88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="88"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="115"/>
       <c r="C12" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="95" t="s">
-        <v>88</v>
-      </c>
       <c r="E12" s="95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="116"/>
       <c r="C13" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="E13" s="90" t="s">
         <v>90</v>
-      </c>
-      <c r="E13" s="90" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="38.25">
       <c r="B14" s="116"/>
       <c r="C14" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="E14" s="91" t="s">
         <v>93</v>
-      </c>
-      <c r="E14" s="91" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="117"/>
       <c r="C15" s="94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="95"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="119"/>
       <c r="D16" s="88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="88"/>
     </row>
     <row r="17" spans="2:5" ht="25.5">
       <c r="B17" s="115"/>
       <c r="C17" s="89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="90" t="s">
         <v>97</v>
-      </c>
-      <c r="E17" s="90" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="25.5">
       <c r="B18" s="116"/>
       <c r="C18" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="96" t="s">
         <v>99</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>100</v>
       </c>
       <c r="E18" s="95"/>
     </row>
     <row r="19" spans="2:5" ht="38.25">
       <c r="B19" s="116"/>
       <c r="C19" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="E19" s="91" t="s">
         <v>102</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="116"/>
       <c r="C20" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="95" t="s">
         <v>104</v>
-      </c>
-      <c r="D20" s="95" t="s">
-        <v>105</v>
       </c>
       <c r="E20" s="95"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="117"/>
       <c r="C21" s="89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="90"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="119"/>
       <c r="D22" s="88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="88"/>
     </row>
     <row r="23" spans="2:5" ht="51">
       <c r="B23" s="115"/>
       <c r="C23" s="89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="90" t="s">
         <v>108</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="25.5">
       <c r="B24" s="116"/>
       <c r="C24" s="89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="91" t="s">
         <v>110</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="117"/>
       <c r="C25" s="94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E25" s="95"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="119"/>
       <c r="D26" s="88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" s="88"/>
     </row>
     <row r="27" spans="2:5" ht="127.5">
       <c r="B27" s="115"/>
       <c r="C27" s="89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="91" t="s">
         <v>113</v>
-      </c>
-      <c r="E27" s="91" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="116"/>
       <c r="C28" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="95" t="s">
-        <v>116</v>
-      </c>
       <c r="E28" s="95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="116"/>
       <c r="C29" s="89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="90" t="s">
         <v>117</v>
-      </c>
-      <c r="E29" s="90" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="116"/>
       <c r="C30" s="89" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="90" t="s">
         <v>119</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="117"/>
       <c r="C31" s="94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31" s="95"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="119"/>
       <c r="D32" s="88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E32" s="88"/>
     </row>
     <row r="33" spans="2:5" ht="38.25">
       <c r="B33" s="115"/>
       <c r="C33" s="97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="99" t="s">
         <v>122</v>
-      </c>
-      <c r="E33" s="99" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="116"/>
       <c r="C34" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="93" t="s">
+      <c r="E34" s="93" t="s">
         <v>125</v>
-      </c>
-      <c r="E34" s="93" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="116"/>
       <c r="C35" s="94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="95"/>
     </row>
     <row r="36" spans="2:5" ht="25.5">
       <c r="B36" s="116"/>
       <c r="C36" s="89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="91" t="s">
         <v>128</v>
-      </c>
-      <c r="E36" s="91" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="117"/>
       <c r="C37" s="94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
